--- a/data/source/annual/lasd_bystation_2010to2021.xlsx
+++ b/data/source/annual/lasd_bystation_2010to2021.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jarvis/R/safetytracker_losangeles/data/source/annual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B2694E-4AC1-3547-95D0-8846DEC7CC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBAB760-13B1-BC49-BDF0-5CA282FD7C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="1360" windowWidth="27640" windowHeight="16940" xr2:uid="{8D6BF642-893A-564D-AC83-EB00521EAD53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$449</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -263,8 +266,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +589,7 @@
   <dimension ref="A1:O449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,50 +597,50 @@
     <col min="1" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>2010</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>2011</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>2012</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>2013</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>2014</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>2015</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>2016</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>2017</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="1">
         <v>2018</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="1">
         <v>2019</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1">
         <v>2020</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1">
         <v>2021</v>
       </c>
     </row>
@@ -21053,19 +21059,19 @@
         <v>13</v>
       </c>
       <c r="F436">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="G436">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="H436">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I436">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="J436">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="K436">
         <v>14</v>
@@ -21088,46 +21094,46 @@
         <v>0</v>
       </c>
       <c r="B437" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C437" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D437">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="E437">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F437">
-        <v>338</v>
+        <v>194</v>
       </c>
       <c r="G437">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="H437">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="I437">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="J437">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="K437">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="L437">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="M437">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="N437">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="O437">
-        <v>1</v>
+        <v>149</v>
       </c>
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.2">
@@ -21138,43 +21144,43 @@
         <v>1</v>
       </c>
       <c r="C438" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D438">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E438">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F438">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G438">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J438">
         <v>2</v>
       </c>
       <c r="K438">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L438">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M438">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O438">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.2">
@@ -21182,46 +21188,46 @@
         <v>0</v>
       </c>
       <c r="B439" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D439">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="E439">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="F439">
-        <v>1209</v>
+        <v>338</v>
       </c>
       <c r="G439">
-        <v>1046</v>
+        <v>292</v>
       </c>
       <c r="H439">
-        <v>1036</v>
+        <v>213</v>
       </c>
       <c r="I439">
-        <v>1105</v>
+        <v>209</v>
       </c>
       <c r="J439">
-        <v>1220</v>
+        <v>241</v>
       </c>
       <c r="K439">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L439">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="M439">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="N439">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="O439">
-        <v>54</v>
+        <v>307</v>
       </c>
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.2">
@@ -21232,40 +21238,40 @@
         <v>1</v>
       </c>
       <c r="C440" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D440">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E440">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F440">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="G440">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="H440">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I440">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J440">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="K440">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L440">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M440">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N440">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O440">
         <v>2</v>
@@ -21276,37 +21282,37 @@
         <v>0</v>
       </c>
       <c r="B441" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D441">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F441">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G441">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H441">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I441">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J441">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="K441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L441">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M441">
         <v>0</v>
@@ -21315,7 +21321,7 @@
         <v>0</v>
       </c>
       <c r="O441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.2">
@@ -21326,43 +21332,43 @@
         <v>1</v>
       </c>
       <c r="C442" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D442">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E442">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="F442">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="G442">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="H442">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="I442">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="J442">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="K442">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="L442">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="M442">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="N442">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O442">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.2">
@@ -21373,43 +21379,43 @@
         <v>0</v>
       </c>
       <c r="C443" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D443">
-        <v>217</v>
+        <v>1128</v>
       </c>
       <c r="E443">
-        <v>194</v>
+        <v>1052</v>
       </c>
       <c r="F443">
-        <v>6</v>
+        <v>1209</v>
       </c>
       <c r="G443">
-        <v>17</v>
+        <v>1046</v>
       </c>
       <c r="H443">
-        <v>18</v>
+        <v>1036</v>
       </c>
       <c r="I443">
-        <v>9</v>
+        <v>1105</v>
       </c>
       <c r="J443">
-        <v>14</v>
+        <v>1220</v>
       </c>
       <c r="K443">
-        <v>102</v>
+        <v>1367</v>
       </c>
       <c r="L443">
-        <v>131</v>
+        <v>1762</v>
       </c>
       <c r="M443">
-        <v>131</v>
+        <v>1566</v>
       </c>
       <c r="N443">
-        <v>94</v>
+        <v>822</v>
       </c>
       <c r="O443">
-        <v>149</v>
+        <v>967</v>
       </c>
     </row>
     <row r="444" spans="1:15" x14ac:dyDescent="0.2">
@@ -21417,46 +21423,46 @@
         <v>0</v>
       </c>
       <c r="B444" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D444">
-        <v>291</v>
+        <v>3</v>
       </c>
       <c r="E444">
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="F444">
         <v>5</v>
       </c>
       <c r="G444">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H444">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J444">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K444">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="L444">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="M444">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="N444">
-        <v>281</v>
+        <v>3</v>
       </c>
       <c r="O444">
-        <v>307</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:15" x14ac:dyDescent="0.2">
@@ -21467,43 +21473,43 @@
         <v>0</v>
       </c>
       <c r="C445" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D445">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="E445">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F445">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="G445">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I445">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J445">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="K445">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="L445">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="M445">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="N445">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="O445">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.2">
@@ -21511,46 +21517,46 @@
         <v>0</v>
       </c>
       <c r="B446" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D446">
-        <v>1128</v>
+        <v>2</v>
       </c>
       <c r="E446">
-        <v>1052</v>
+        <v>1</v>
       </c>
       <c r="F446">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G446">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="H446">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="I446">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="J446">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="K446">
-        <v>1367</v>
+        <v>2</v>
       </c>
       <c r="L446">
-        <v>1762</v>
+        <v>0</v>
       </c>
       <c r="M446">
-        <v>1566</v>
+        <v>0</v>
       </c>
       <c r="N446">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="O446">
-        <v>967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.2">
@@ -21561,43 +21567,43 @@
         <v>0</v>
       </c>
       <c r="C447" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D447">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="E447">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="F447">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G447">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I447">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J447">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K447">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="L447">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="M447">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="N447">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="O447">
-        <v>112</v>
+        <v>24</v>
       </c>
     </row>
     <row r="448" spans="1:15" x14ac:dyDescent="0.2">
@@ -21605,46 +21611,46 @@
         <v>0</v>
       </c>
       <c r="B448" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D448">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E448">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F448">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G448">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K448">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="L448">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="M448">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N448">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O448">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:15" x14ac:dyDescent="0.2">
@@ -21664,19 +21670,19 @@
         <v>122</v>
       </c>
       <c r="F449">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="G449">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="I449">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="J449">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="K449">
         <v>104</v>
